--- a/biology/Histoire de la zoologie et de la botanique/Louis_de_Chambray/Louis_de_Chambray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_de_Chambray/Louis_de_Chambray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis, marquis de Chambray, né le 16 juillet 1713 au château de Chambray à Gouville et mort le 8 mai 1783 dans la même commune[1], est un agronome français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis, marquis de Chambray, né le 16 juillet 1713 au château de Chambray à Gouville et mort le 8 mai 1783 dans la même commune, est un agronome français.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Page du roi dans sa Grande Écurie en 1730, il suit en 1733 le prince de Lorraine et grand écuyer de France à la guerre d'Italie en qualité d'aide de camp. Il entre dans le régiment des Gardes françaises en qualité d'enseigne-drapeau en 1734[2]. 
-Le 8 avril 1734, il se marie avec Marie Élisabeth Françoise de Bonignal [3] qui meurt l'année même  de la naissance de leur fils unique Louis-François de Chambray en 1737.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Page du roi dans sa Grande Écurie en 1730, il suit en 1733 le prince de Lorraine et grand écuyer de France à la guerre d'Italie en qualité d'aide de camp. Il entre dans le régiment des Gardes françaises en qualité d'enseigne-drapeau en 1734. 
+Le 8 avril 1734, il se marie avec Marie Élisabeth Françoise de Bonignal  qui meurt l'année même  de la naissance de leur fils unique Louis-François de Chambray en 1737.
 Lors de son deuxième mariage en 1741 avec Anne Catherine d'Aubenton de Malicorne, il aura un deuxième fils.
 Enfin, son dernier mariage a lieu en 1744 avec Jacqueline Anne Madeleine de Bernard (qui lui apporte les terres du manoir de la Grande-Rosière), avec laquelle il aura une fille et deux fils, dont Jacques de Chambray en 1754. 
-Il est admis aux honneurs de la cour en 1762[3].
-Il s'est durant toute sa vie occupé d'économie rurale et prétendait être l'introducteur en France des peupliers d'Italie[4].
+Il est admis aux honneurs de la cour en 1762.
+Il s'est durant toute sa vie occupé d'économie rurale et prétendait être l'introducteur en France des peupliers d'Italie.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'art de cultiver les pommiers, les poiriers et de faire des cidres selon l'usage de la Normandie, Paris, Ganneau, 1765[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'art de cultiver les pommiers, les poiriers et de faire des cidres selon l'usage de la Normandie, Paris, Ganneau, 1765.</t>
         </is>
       </c>
     </row>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
